--- a/ESPN sports website/IPL/Lucknow Super Giants/.xlsx
+++ b/ESPN sports website/IPL/Lucknow Super Giants/.xlsx
@@ -460,16 +460,16 @@
         <v/>
       </c>
       <c r="H2" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I2" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J2" t="str">
-        <v>May 15, 2022</v>
+        <v>March 28, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Royals won by 24 runs</v>
+        <v>Titans won by 5 wickets (with 2 balls remaining)</v>
       </c>
     </row>
   </sheetData>
